--- a/InputOutputFiles/IEC_104_Conf.xlsx
+++ b/InputOutputFiles/IEC_104_Conf.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bak.INTRA\Desktop\WAGO_Conf_Conv_test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Useful\Priv\Programming\_VS_Projects\WAGO_CodesysV23_Protocols\InputOutputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B9CF4C9-7F98-40C2-A864-9BE37196BECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45481EDA-3EF6-4DFE-A4ED-32A425B69FB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{852913BC-0740-468B-9F45-217D065EB444}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{852913BC-0740-468B-9F45-217D065EB444}"/>
   </bookViews>
   <sheets>
     <sheet name="Main Configuration" sheetId="3" r:id="rId1"/>
@@ -560,7 +560,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C83666C1-86BF-4346-82B6-7EACDD2157DE}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -706,8 +706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72D27F81-CBAF-4521-81D0-D05BDC6A7D6F}">
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/InputOutputFiles/IEC_104_Conf.xlsx
+++ b/InputOutputFiles/IEC_104_Conf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Useful\Priv\Programming\_VS_Projects\WAGO_CodesysV23_Protocols\InputOutputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45481EDA-3EF6-4DFE-A4ED-32A425B69FB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E30E4967-65D2-41C4-A253-819C149636FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{852913BC-0740-468B-9F45-217D065EB444}"/>
   </bookViews>
@@ -707,7 +707,7 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD34"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/InputOutputFiles/IEC_104_Conf.xlsx
+++ b/InputOutputFiles/IEC_104_Conf.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Useful\Priv\Programming\_VS_Projects\WAGO_CodesysV23_Protocols\InputOutputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E30E4967-65D2-41C4-A253-819C149636FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40F3F710-6A71-4729-A0F7-F8D83B04C7E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{852913BC-0740-468B-9F45-217D065EB444}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{852913BC-0740-468B-9F45-217D065EB444}"/>
   </bookViews>
   <sheets>
     <sheet name="Main Configuration" sheetId="3" r:id="rId1"/>
@@ -167,15 +167,6 @@
     <t>Client104-001_ClientConnection104-001</t>
   </si>
   <si>
-    <t>ExecutionTimeDefault</t>
-  </si>
-  <si>
-    <t>ExecutionTimeShort</t>
-  </si>
-  <si>
-    <t>ExecutionTimeLong</t>
-  </si>
-  <si>
     <t>t#2s</t>
   </si>
   <si>
@@ -183,6 +174,15 @@
   </si>
   <si>
     <t>t#5s</t>
+  </si>
+  <si>
+    <t>Execution Time Default</t>
+  </si>
+  <si>
+    <t>Execution Time Short</t>
+  </si>
+  <si>
+    <t>Execution Time Long</t>
   </si>
 </sst>
 </file>
@@ -560,8 +560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C83666C1-86BF-4346-82B6-7EACDD2157DE}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -573,24 +573,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -603,7 +603,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -706,7 +706,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72D27F81-CBAF-4521-81D0-D05BDC6A7D6F}">
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>

--- a/InputOutputFiles/IEC_104_Conf.xlsx
+++ b/InputOutputFiles/IEC_104_Conf.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Useful\Priv\Programming\_VS_Projects\WAGO_CodesysV23_Protocols\InputOutputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40F3F710-6A71-4729-A0F7-F8D83B04C7E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D9624E-5A21-4D74-AABE-D78FF9741570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{852913BC-0740-468B-9F45-217D065EB444}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{852913BC-0740-468B-9F45-217D065EB444}"/>
   </bookViews>
   <sheets>
     <sheet name="Main Configuration" sheetId="3" r:id="rId1"/>
@@ -560,7 +560,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C83666C1-86BF-4346-82B6-7EACDD2157DE}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -706,8 +706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72D27F81-CBAF-4521-81D0-D05BDC6A7D6F}">
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/InputOutputFiles/IEC_104_Conf.xlsx
+++ b/InputOutputFiles/IEC_104_Conf.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Useful\Priv\Programming\_VS_Projects\WAGO_CodesysV23_Protocols\InputOutputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D9624E-5A21-4D74-AABE-D78FF9741570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA64355-F143-4A6B-BD3A-63A55DD2245F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{852913BC-0740-468B-9F45-217D065EB444}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{852913BC-0740-468B-9F45-217D065EB444}"/>
   </bookViews>
   <sheets>
     <sheet name="Main Configuration" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="53">
   <si>
     <t>Name</t>
   </si>
@@ -183,6 +183,18 @@
   </si>
   <si>
     <t>Execution Time Long</t>
+  </si>
+  <si>
+    <t>Vestas_CapBank2_NotControllable</t>
+  </si>
+  <si>
+    <t>Vestas_CapBank3_NotControllable</t>
+  </si>
+  <si>
+    <t>Vestas_CapBank2_NotControllable_Exec</t>
+  </si>
+  <si>
+    <t>Vestas_CapBank3_NotControllable_Exec</t>
   </si>
 </sst>
 </file>
@@ -602,8 +614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63DB924D-2A0E-41D3-AD91-F53CCAE512E1}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -704,10 +716,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72D27F81-CBAF-4521-81D0-D05BDC6A7D6F}">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -720,7 +732,7 @@
     <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="37.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="3.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7.28515625" bestFit="1" customWidth="1"/>
@@ -840,6 +852,94 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3">
+        <v>15975</v>
+      </c>
+      <c r="E3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4">
+        <v>15976</v>
+      </c>
+      <c r="E4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/InputOutputFiles/IEC_104_Conf.xlsx
+++ b/InputOutputFiles/IEC_104_Conf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Useful\Priv\Programming\_VS_Projects\WAGO_CodesysV23_Protocols\InputOutputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA64355-F143-4A6B-BD3A-63A55DD2245F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC37D35A-AD7F-48CA-A97D-FF9CB4E9955A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{852913BC-0740-468B-9F45-217D065EB444}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="62">
   <si>
     <t>Name</t>
   </si>
@@ -155,9 +155,6 @@
     <t>Vestas_CapBank1_NotControllable</t>
   </si>
   <si>
-    <t>Vestas_CapBank1_NotControllable_Exec</t>
-  </si>
-  <si>
     <t>Client104-001</t>
   </si>
   <si>
@@ -191,10 +188,40 @@
     <t>Vestas_CapBank3_NotControllable</t>
   </si>
   <si>
-    <t>Vestas_CapBank2_NotControllable_Exec</t>
-  </si>
-  <si>
-    <t>Vestas_CapBank3_NotControllable_Exec</t>
+    <t>Vestas_2CapBank1_NotControllable</t>
+  </si>
+  <si>
+    <t>Vestas_2CapBank2_NotControllable</t>
+  </si>
+  <si>
+    <t>Vestas_2CapBank3_NotControllable</t>
+  </si>
+  <si>
+    <t>Vestas_3CapBank1_NotControllable</t>
+  </si>
+  <si>
+    <t>Vestas_3CapBank2_NotControllable</t>
+  </si>
+  <si>
+    <t>Vestas_3CapBank3_NotControllable</t>
+  </si>
+  <si>
+    <t>Client104-001_ClientConnection104-002</t>
+  </si>
+  <si>
+    <t>Client104-002_ClientConnection104-001</t>
+  </si>
+  <si>
+    <t>ClientConnection104-002</t>
+  </si>
+  <si>
+    <t>Client104-002</t>
+  </si>
+  <si>
+    <t>100.127.5.97</t>
+  </si>
+  <si>
+    <t>100.127.5.98</t>
   </si>
 </sst>
 </file>
@@ -585,24 +612,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
         <v>43</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>44</v>
-      </c>
-      <c r="C2" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -612,10 +639,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63DB924D-2A0E-41D3-AD91-F53CCAE512E1}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD26"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -670,10 +697,10 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
         <v>40</v>
-      </c>
-      <c r="B2" t="s">
-        <v>41</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -706,6 +733,88 @@
         <v>12</v>
       </c>
       <c r="M2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3">
+        <v>2404</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3">
+        <v>12</v>
+      </c>
+      <c r="M3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4">
+        <v>2404</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4">
+        <v>12</v>
+      </c>
+      <c r="M4">
         <v>8</v>
       </c>
     </row>
@@ -716,10 +825,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72D27F81-CBAF-4521-81D0-D05BDC6A7D6F}">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -810,7 +919,7 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -830,9 +939,6 @@
       <c r="H2">
         <v>1</v>
       </c>
-      <c r="I2" t="s">
-        <v>39</v>
-      </c>
       <c r="J2">
         <v>1</v>
       </c>
@@ -854,19 +960,19 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="D3">
         <v>15975</v>
       </c>
       <c r="E3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -874,9 +980,6 @@
       <c r="H3">
         <v>1</v>
       </c>
-      <c r="I3" t="s">
-        <v>51</v>
-      </c>
       <c r="J3">
         <v>1</v>
       </c>
@@ -898,19 +1001,19 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="D4">
         <v>15976</v>
       </c>
       <c r="E4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -918,25 +1021,268 @@
       <c r="H4">
         <v>1</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5">
+        <v>15977</v>
+      </c>
+      <c r="E5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6">
+        <v>15978</v>
+      </c>
+      <c r="E6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
         <v>52</v>
       </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="R4">
-        <v>1</v>
-      </c>
-      <c r="T4">
+      <c r="D7">
+        <v>15979</v>
+      </c>
+      <c r="E7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8">
+        <v>15980</v>
+      </c>
+      <c r="E8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9">
+        <v>15981</v>
+      </c>
+      <c r="E9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10">
+        <v>15982</v>
+      </c>
+      <c r="E10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="T10">
         <v>1</v>
       </c>
     </row>
